--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.907455</v>
+        <v>0.9521773333333332</v>
       </c>
       <c r="H2">
-        <v>11.722365</v>
+        <v>2.856532</v>
       </c>
       <c r="I2">
-        <v>0.02724526174224166</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="J2">
-        <v>0.02724526174224165</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N2">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O2">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P2">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q2">
-        <v>90.595139993335</v>
+        <v>11.64746416027289</v>
       </c>
       <c r="R2">
-        <v>815.356259940015</v>
+        <v>104.827177442456</v>
       </c>
       <c r="S2">
-        <v>0.01148714913461926</v>
+        <v>0.001533972988662642</v>
       </c>
       <c r="T2">
-        <v>0.01148714913461926</v>
+        <v>0.001533972988662642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.907455</v>
+        <v>0.9521773333333332</v>
       </c>
       <c r="H3">
-        <v>11.722365</v>
+        <v>2.856532</v>
       </c>
       <c r="I3">
-        <v>0.02724526174224166</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="J3">
-        <v>0.02724526174224165</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.696291</v>
       </c>
       <c r="O3">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P3">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q3">
-        <v>45.191398583135</v>
+        <v>11.01234061364578</v>
       </c>
       <c r="R3">
-        <v>406.722587248215</v>
+        <v>99.111065522812</v>
       </c>
       <c r="S3">
-        <v>0.005730112400783138</v>
+        <v>0.001450327110763089</v>
       </c>
       <c r="T3">
-        <v>0.005730112400783137</v>
+        <v>0.001450327110763089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.907455</v>
+        <v>0.9521773333333332</v>
       </c>
       <c r="H4">
-        <v>11.722365</v>
+        <v>2.856532</v>
       </c>
       <c r="I4">
-        <v>0.02724526174224166</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="J4">
-        <v>0.02724526174224165</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N4">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O4">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P4">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q4">
-        <v>70.896184925315</v>
+        <v>19.21570477202756</v>
       </c>
       <c r="R4">
-        <v>638.0656643278351</v>
+        <v>172.941342948248</v>
       </c>
       <c r="S4">
-        <v>0.008989390042032646</v>
+        <v>0.002530711549982181</v>
       </c>
       <c r="T4">
-        <v>0.008989390042032646</v>
+        <v>0.002530711549982181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.907455</v>
+        <v>0.9521773333333332</v>
       </c>
       <c r="H5">
-        <v>11.722365</v>
+        <v>2.856532</v>
       </c>
       <c r="I5">
-        <v>0.02724526174224166</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="J5">
-        <v>0.02724526174224165</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N5">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O5">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P5">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q5">
-        <v>8.191156236980001</v>
+        <v>2.833421069157777</v>
       </c>
       <c r="R5">
-        <v>73.72040613282</v>
+        <v>25.50078962242</v>
       </c>
       <c r="S5">
-        <v>0.001038610164806614</v>
+        <v>0.0003731620313046598</v>
       </c>
       <c r="T5">
-        <v>0.001038610164806614</v>
+        <v>0.0003731620313046598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>263.005996</v>
       </c>
       <c r="I6">
-        <v>0.6112816996228118</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="J6">
-        <v>0.6112816996228116</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N6">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O6">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P6">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q6">
-        <v>2032.615860938173</v>
+        <v>1072.402799039841</v>
       </c>
       <c r="R6">
-        <v>18293.54274844355</v>
+        <v>9651.625191358567</v>
       </c>
       <c r="S6">
-        <v>0.2577286323494514</v>
+        <v>0.1412356289795861</v>
       </c>
       <c r="T6">
-        <v>0.2577286323494513</v>
+        <v>0.1412356289795861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>263.005996</v>
       </c>
       <c r="I7">
-        <v>0.6112816996228118</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="J7">
-        <v>0.6112816996228116</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.696291</v>
       </c>
       <c r="O7">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P7">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q7">
         <v>1013.925841328982</v>
@@ -883,10 +883,10 @@
         <v>9125.332571960837</v>
       </c>
       <c r="S7">
-        <v>0.12856227554422</v>
+        <v>0.1335342038149926</v>
       </c>
       <c r="T7">
-        <v>0.12856227554422</v>
+        <v>0.1335342038149927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>263.005996</v>
       </c>
       <c r="I8">
-        <v>0.6112816996228118</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="J8">
-        <v>0.6112816996228116</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N8">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O8">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P8">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q8">
-        <v>1590.64503868312</v>
+        <v>1769.224210479372</v>
       </c>
       <c r="R8">
-        <v>14315.80534814808</v>
+        <v>15923.01789431435</v>
       </c>
       <c r="S8">
-        <v>0.2016882669527248</v>
+        <v>0.2330071260506683</v>
       </c>
       <c r="T8">
-        <v>0.2016882669527248</v>
+        <v>0.2330071260506682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>263.005996</v>
       </c>
       <c r="I9">
-        <v>0.6112816996228118</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="J9">
-        <v>0.6112816996228116</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N9">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O9">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P9">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q9">
-        <v>183.7788880058364</v>
+        <v>260.8781313779177</v>
       </c>
       <c r="R9">
-        <v>1654.009992052528</v>
+        <v>2347.90318240126</v>
       </c>
       <c r="S9">
-        <v>0.02330252477641566</v>
+        <v>0.03435769377436178</v>
       </c>
       <c r="T9">
-        <v>0.02330252477641565</v>
+        <v>0.0343576937743618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.77204933333334</v>
+        <v>72.96496833333333</v>
       </c>
       <c r="H10">
-        <v>155.316148</v>
+        <v>218.894905</v>
       </c>
       <c r="I10">
-        <v>0.3609876594916421</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="J10">
-        <v>0.360987659491642</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N10">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O10">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P10">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q10">
-        <v>1200.345508034047</v>
+        <v>892.5405214623322</v>
       </c>
       <c r="R10">
-        <v>10803.10957230643</v>
+        <v>8032.86469316099</v>
       </c>
       <c r="S10">
-        <v>0.1521996418888678</v>
+        <v>0.1175477367751788</v>
       </c>
       <c r="T10">
-        <v>0.1521996418888677</v>
+        <v>0.1175477367751788</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.77204933333334</v>
+        <v>72.96496833333333</v>
       </c>
       <c r="H11">
-        <v>155.316148</v>
+        <v>218.894905</v>
       </c>
       <c r="I11">
-        <v>0.3609876594916421</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="J11">
-        <v>0.360987659491642</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.696291</v>
       </c>
       <c r="O11">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P11">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q11">
-        <v>598.7660297785632</v>
+        <v>843.8712580330395</v>
       </c>
       <c r="R11">
-        <v>5388.894268007069</v>
+        <v>7594.841322297355</v>
       </c>
       <c r="S11">
-        <v>0.07592145319623381</v>
+        <v>0.1111379865968282</v>
       </c>
       <c r="T11">
-        <v>0.07592145319623378</v>
+        <v>0.1111379865968282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.77204933333334</v>
+        <v>72.96496833333333</v>
       </c>
       <c r="H12">
-        <v>155.316148</v>
+        <v>218.894905</v>
       </c>
       <c r="I12">
-        <v>0.3609876594916421</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="J12">
-        <v>0.360987659491642</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N12">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O12">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P12">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q12">
-        <v>939.3430720247658</v>
+        <v>1472.491773444519</v>
       </c>
       <c r="R12">
-        <v>8454.087648222892</v>
+        <v>13252.42596100067</v>
       </c>
       <c r="S12">
-        <v>0.1191054394056207</v>
+        <v>0.1939274141916675</v>
       </c>
       <c r="T12">
-        <v>0.1191054394056207</v>
+        <v>0.1939274141916675</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.77204933333334</v>
+        <v>72.96496833333333</v>
       </c>
       <c r="H13">
-        <v>155.316148</v>
+        <v>218.894905</v>
       </c>
       <c r="I13">
-        <v>0.3609876594916421</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="J13">
-        <v>0.360987659491642</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N13">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O13">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P13">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q13">
-        <v>108.5291947822738</v>
+        <v>217.1239236102694</v>
       </c>
       <c r="R13">
-        <v>976.762753040464</v>
+        <v>1954.115312492425</v>
       </c>
       <c r="S13">
-        <v>0.01376112500091991</v>
+        <v>0.02859525725321492</v>
       </c>
       <c r="T13">
-        <v>0.0137611250009199</v>
+        <v>0.02859525725321493</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06961199999999999</v>
+        <v>0.1243193333333333</v>
       </c>
       <c r="H14">
-        <v>0.208836</v>
+        <v>0.372958</v>
       </c>
       <c r="I14">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="J14">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N14">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O14">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P14">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q14">
-        <v>1.613968397644</v>
+        <v>1.520730360551556</v>
       </c>
       <c r="R14">
-        <v>14.525715578796</v>
+        <v>13.686573244964</v>
       </c>
       <c r="S14">
-        <v>0.0002046455878721869</v>
+        <v>0.0002002804442259501</v>
       </c>
       <c r="T14">
-        <v>0.0002046455878721868</v>
+        <v>0.0002002804442259501</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06961199999999999</v>
+        <v>0.1243193333333333</v>
       </c>
       <c r="H15">
-        <v>0.208836</v>
+        <v>0.372958</v>
       </c>
       <c r="I15">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="J15">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.696291</v>
       </c>
       <c r="O15">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P15">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q15">
-        <v>0.8050927363639999</v>
+        <v>1.437806588753111</v>
       </c>
       <c r="R15">
-        <v>7.245834627276</v>
+        <v>12.940259298778</v>
       </c>
       <c r="S15">
-        <v>0.0001020829630650425</v>
+        <v>0.0001893593695347996</v>
       </c>
       <c r="T15">
-        <v>0.0001020829630650425</v>
+        <v>0.0001893593695347997</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06961199999999999</v>
+        <v>0.1243193333333333</v>
       </c>
       <c r="H16">
-        <v>0.208836</v>
+        <v>0.372958</v>
       </c>
       <c r="I16">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="J16">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N16">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O16">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P16">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q16">
-        <v>1.263028038716</v>
+        <v>2.508864182290223</v>
       </c>
       <c r="R16">
-        <v>11.367252348444</v>
+        <v>22.579777640612</v>
       </c>
       <c r="S16">
-        <v>0.000160147569097015</v>
+        <v>0.000330417834723453</v>
       </c>
       <c r="T16">
-        <v>0.000160147569097015</v>
+        <v>0.000330417834723453</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06961199999999999</v>
+        <v>0.1243193333333333</v>
       </c>
       <c r="H17">
-        <v>0.208836</v>
+        <v>0.372958</v>
       </c>
       <c r="I17">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="J17">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N17">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O17">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P17">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q17">
-        <v>0.145926893072</v>
+        <v>0.3699405625811111</v>
       </c>
       <c r="R17">
-        <v>1.313342037648</v>
+        <v>3.32946506323</v>
       </c>
       <c r="S17">
-        <v>1.850302327026621E-05</v>
+        <v>4.872123430485754E-05</v>
       </c>
       <c r="T17">
-        <v>1.85030232702662E-05</v>
+        <v>4.872123430485756E-05</v>
       </c>
     </row>
   </sheetData>
